--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.728350302308071</v>
+        <v>13.267299</v>
       </c>
       <c r="N2">
-        <v>8.728350302308071</v>
+        <v>39.801897</v>
       </c>
       <c r="O2">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="P2">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="Q2">
-        <v>74.06203832059612</v>
+        <v>121.488117406174</v>
       </c>
       <c r="R2">
-        <v>74.06203832059612</v>
+        <v>1093.393056655566</v>
       </c>
       <c r="S2">
-        <v>0.3272583745989773</v>
+        <v>0.4118438254383586</v>
       </c>
       <c r="T2">
-        <v>0.3272583745989773</v>
+        <v>0.4118438254383585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2718798405898</v>
+        <v>10.340832</v>
       </c>
       <c r="N3">
-        <v>10.2718798405898</v>
+        <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="P3">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="Q3">
-        <v>87.15923765996774</v>
+        <v>94.69057809683203</v>
       </c>
       <c r="R3">
-        <v>87.15923765996774</v>
+        <v>852.215202871488</v>
       </c>
       <c r="S3">
-        <v>0.3851310481682329</v>
+        <v>0.3210003640601898</v>
       </c>
       <c r="T3">
-        <v>0.3851310481682329</v>
+        <v>0.3210003640601898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.81159955231572</v>
+        <v>7.622739666666667</v>
       </c>
       <c r="N4">
-        <v>6.81159955231572</v>
+        <v>22.868219</v>
       </c>
       <c r="O4">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="P4">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="Q4">
-        <v>57.7979720789575</v>
+        <v>69.80111713625357</v>
       </c>
       <c r="R4">
-        <v>57.7979720789575</v>
+        <v>628.2100542262821</v>
       </c>
       <c r="S4">
-        <v>0.2553922471833538</v>
+        <v>0.2366252742657506</v>
       </c>
       <c r="T4">
-        <v>0.2553922471833538</v>
+        <v>0.2366252742657506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H5">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.728350302308071</v>
+        <v>13.267299</v>
       </c>
       <c r="N5">
-        <v>8.728350302308071</v>
+        <v>39.801897</v>
       </c>
       <c r="O5">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="P5">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="Q5">
-        <v>2.465592466603383</v>
+        <v>3.825904279929</v>
       </c>
       <c r="R5">
-        <v>2.465592466603383</v>
+        <v>34.43313851936099</v>
       </c>
       <c r="S5">
-        <v>0.01089472827565586</v>
+        <v>0.01296978740018629</v>
       </c>
       <c r="T5">
-        <v>0.01089472827565586</v>
+        <v>0.01296978740018629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H6">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2718798405898</v>
+        <v>10.340832</v>
       </c>
       <c r="N6">
-        <v>10.2718798405898</v>
+        <v>31.022496</v>
       </c>
       <c r="O6">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="P6">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="Q6">
-        <v>2.901610118250667</v>
+        <v>2.981996064672</v>
       </c>
       <c r="R6">
-        <v>2.901610118250667</v>
+        <v>26.837964582048</v>
       </c>
       <c r="S6">
-        <v>0.01282136209792364</v>
+        <v>0.01010894475062657</v>
       </c>
       <c r="T6">
-        <v>0.01282136209792364</v>
+        <v>0.01010894475062657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H7">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.81159955231572</v>
+        <v>7.622739666666667</v>
       </c>
       <c r="N7">
-        <v>6.81159955231572</v>
+        <v>22.868219</v>
       </c>
       <c r="O7">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="P7">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="Q7">
-        <v>1.924146941864552</v>
+        <v>2.198177060416333</v>
       </c>
       <c r="R7">
-        <v>1.924146941864552</v>
+        <v>19.783593543747</v>
       </c>
       <c r="S7">
-        <v>0.008502239675856626</v>
+        <v>0.007451804084888231</v>
       </c>
       <c r="T7">
-        <v>0.008502239675856626</v>
+        <v>0.007451804084888231</v>
       </c>
     </row>
   </sheetData>
